--- a/biology/Zoologie/Felovia_vae/Felovia_vae.xlsx
+++ b/biology/Zoologie/Felovia_vae/Felovia_vae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Goundi de Félou[1] (Felovia vae) est une espèce de petits rongeurs de la famille des Ctenodactylidae. C'est un goundi faiblement connu de la savane du Mali, de Mauritanie et du Sénégal.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Goundi de Félou (Felovia vae) est une espèce de petits rongeurs de la famille des Ctenodactylidae. C'est un goundi faiblement connu de la savane du Mali, de Mauritanie et du Sénégal.
 L'espèce a été décrite pour la première fois en 1886 par le zoologiste français Fernand Lataste (1847-1934).
 </t>
         </is>
